--- a/Team-Data/2011-12/2-5-2011-12.xlsx
+++ b/Team-Data/2011-12/2-5-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>5</v>
@@ -756,10 +823,10 @@
         <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -780,7 +847,7 @@
         <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>24</v>
@@ -795,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="n">
         <v>4</v>
@@ -813,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -848,94 +915,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.545</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J3" t="n">
         <v>74.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.422</v>
+        <v>0.427</v>
       </c>
       <c r="O3" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P3" t="n">
         <v>20.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.757</v>
       </c>
       <c r="R3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S3" t="n">
-        <v>30.1</v>
+        <v>29.7</v>
       </c>
       <c r="T3" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.7</v>
+        <v>90.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -947,19 +1014,19 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>20</v>
@@ -971,16 +1038,16 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>28</v>
@@ -992,7 +1059,7 @@
         <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="AL5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>20</v>
@@ -1538,13 +1605,13 @@
         <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
         <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1684,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1720,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>5.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1896,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP9" t="n">
         <v>24</v>
@@ -2081,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2397,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
@@ -2427,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
@@ -2445,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>16</v>
@@ -2457,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2591,7 +2658,7 @@
         <v>22</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2864,7 @@
         <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2940,7 +3007,7 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
@@ -2967,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>14</v>
@@ -2979,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>11</v>
@@ -3000,7 +3067,7 @@
         <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -3032,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.522</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
       </c>
       <c r="I15" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J15" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.443</v>
+        <v>0.446</v>
       </c>
       <c r="L15" t="n">
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.316</v>
+        <v>0.321</v>
       </c>
       <c r="O15" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P15" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R15" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="T15" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U15" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="X15" t="n">
         <v>5</v>
@@ -3098,40 +3165,40 @@
         <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
@@ -3149,43 +3216,43 @@
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
       </c>
       <c r="AS15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU15" t="n">
         <v>23</v>
       </c>
-      <c r="AT15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>24</v>
-      </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
         <v>24</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
         <v>18</v>
       </c>
-      <c r="BB15" t="n">
-        <v>20</v>
-      </c>
       <c r="BC15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -3214,88 +3281,88 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
       <c r="H16" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I16" t="n">
-        <v>38.2</v>
+        <v>38.5</v>
       </c>
       <c r="J16" t="n">
-        <v>78.8</v>
+        <v>79.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.485</v>
+        <v>0.487</v>
       </c>
       <c r="L16" t="n">
         <v>5.8</v>
       </c>
       <c r="M16" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.393</v>
+        <v>0.395</v>
       </c>
       <c r="O16" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="P16" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.765</v>
+        <v>0.76</v>
       </c>
       <c r="R16" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S16" t="n">
         <v>32.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="V16" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W16" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>103.2</v>
+        <v>103.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3307,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
         <v>24</v>
@@ -3325,10 +3392,10 @@
         <v>3</v>
       </c>
       <c r="AO16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ16" t="n">
         <v>11</v>
@@ -3340,28 +3407,28 @@
         <v>6</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW16" t="n">
         <v>9</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3504,7 +3571,7 @@
         <v>11</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>22</v>
@@ -3525,7 +3592,7 @@
         <v>25</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>9</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>1.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
         <v>24</v>
@@ -3689,7 +3756,7 @@
         <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP18" t="n">
         <v>5</v>
@@ -3731,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -3844,10 +3911,10 @@
         <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3889,7 +3956,7 @@
         <v>28</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>21</v>
@@ -4041,7 +4108,7 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4086,7 +4153,7 @@
         <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4253,7 +4320,7 @@
         <v>19</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>1.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
@@ -4578,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4641,7 +4708,7 @@
         <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>10.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>4</v>
@@ -4763,7 +4830,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4990,7 +5057,7 @@
         <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
@@ -5124,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5133,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5142,7 +5209,7 @@
         <v>13</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5175,7 +5242,7 @@
         <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -5494,10 +5561,10 @@
         <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>0.32</v>
+        <v>0.333</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5598,7 +5665,7 @@
         <v>32.8</v>
       </c>
       <c r="J29" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K29" t="n">
         <v>0.42</v>
@@ -5607,43 +5674,43 @@
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="O29" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P29" t="n">
         <v>21</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R29" t="n">
         <v>10.4</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T29" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U29" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V29" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
       </c>
       <c r="X29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
         <v>23.8</v>
@@ -5652,13 +5719,13 @@
         <v>18.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,7 +5737,7 @@
         <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>30</v>
@@ -5688,7 +5755,7 @@
         <v>18</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>19</v>
@@ -5703,25 +5770,25 @@
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>20</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
         <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5876,7 +5943,7 @@
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-10.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-5-2011-12</t>
+          <t>2012-02-05</t>
         </is>
       </c>
     </row>
